--- a/DungeonsAndDragons/resources/TravokBattleCard.xlsx
+++ b/DungeonsAndDragons/resources/TravokBattleCard.xlsx
@@ -35,6 +35,554 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Languages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Common</t>
+    </r>
+  </si>
+  <si>
+    <t>Travok</t>
+  </si>
+  <si>
+    <t>Medium Dwarf Paladin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bolstering Strike</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (standard; at-will) - Weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Enfeebling Strike </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(standard; at-will) - Weapon</t>
+    </r>
+  </si>
+  <si>
+    <t>penalty to attack rolls until the end of my next turn.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Shielding Smite </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(standard; Encounter) - Weapon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Until the end of my next turn, one ally within 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Radiant Delirium </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(standard; Daily)</t>
+    </r>
+  </si>
+  <si>
+    <t>target is dazed until the end of my next turn. The target</t>
+  </si>
+  <si>
+    <t>takes a -2 penalty to AC (save ends).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Miss: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Half damage, and the target is dazed until the end of</t>
+    </r>
+  </si>
+  <si>
+    <t>my next turn.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Channel Divinity: Divine Mettle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(minor; Encounter)</t>
+    </r>
+  </si>
+  <si>
+    <t>One creature in close burst 10. The target makes a saving</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Channel Divinity: Divine Strength </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(minor, Encounter)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Divine Challenge: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(minor, at-will)</t>
+    </r>
+  </si>
+  <si>
+    <t>One creature in close burst 5. I mark the target. Target</t>
+  </si>
+  <si>
+    <t>remains marked until I mark another target or I fail to</t>
+  </si>
+  <si>
+    <t>attack it or end my turn adj to it. While marked, it takes</t>
+  </si>
+  <si>
+    <t>damage if it's first attack before the start of my next turn</t>
+  </si>
+  <si>
+    <t>doesn't include me.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lay on Hands: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(minor, at-will but 2 times per day)</t>
+    </r>
+  </si>
+  <si>
+    <t>Melee touch - one creature; I spend a healing surge but</t>
+  </si>
+  <si>
+    <t>don't regain hp. Instead, the target regains hp as if it had</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alignment Lawful </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Good</t>
+    </r>
+  </si>
+  <si>
+    <t>Level 2 Defender</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initiative</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Senses</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Perception +3; low-light vision</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 35; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bloodied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 18; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fortitude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reflex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Will</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+  </si>
+  <si>
+    <t>6 vs AC; 1d10 + 4, and I gain 3 temporary hit points.</t>
+  </si>
+  <si>
+    <t>6 vs AC; 1d10 + 4. If I marked the target, it takes a -2</t>
+  </si>
+  <si>
+    <t>6 vs AC; 2d10 + 4 damage.</t>
+  </si>
+  <si>
+    <t>squares gains a 3 AC bonus.</t>
+  </si>
+  <si>
+    <t>Ranged 5; 4 vs Reflex; 3d8 + 4 radiant damage, and the</t>
+  </si>
+  <si>
+    <t>throw with a +4 bonus.</t>
+  </si>
+  <si>
+    <t>Personal: Apply 3 extra damage on my next attack this turn.</t>
+  </si>
+  <si>
+    <t>-2 to attack rolls that don't include me. And takes 7 radiant</t>
+  </si>
+  <si>
+    <t>spent a healing surge. Plus an extra 4 hp (healing hands).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Skills</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0 acro, 1 arc, 2 ath, 4 blu, 9 dip, 5 dun, 4 end, 8 heal,</t>
+    </r>
+  </si>
+  <si>
+    <t>8 ins, 4 int, 3 nat, 3 perc, 6 rel, 0 ste, 4 str, 0 thiev</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Str</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 14 (+3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Con</t>
     </r>
     <r>
@@ -45,34 +593,77 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 14 (+2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Languages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Common</t>
-    </r>
-  </si>
-  <si>
-    <t>Level 1 Defender</t>
+      <t xml:space="preserve"> 14 (+3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10 (+1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 11 (+1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15 (+3)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -94,599 +685,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 16 (+3)</t>
-    </r>
-  </si>
-  <si>
-    <t>Travok</t>
-  </si>
-  <si>
-    <t>Medium Dwarf Paladin</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Initiative</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> +0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Senses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Perception +2; low-light vision</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 29; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bloodied</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 16; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Fortitude</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 13; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reflex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 11; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Will</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 14</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bolstering Strike</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (standard; at-will) - Weapon</t>
-    </r>
-  </si>
-  <si>
-    <t>5 vs AC; 1d10 + 3, and I gain 2 temporary hit points.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Enfeebling Strike </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(standard; at-will) - Weapon</t>
-    </r>
-  </si>
-  <si>
-    <t>penalty to attack rolls until the end of my next turn.</t>
-  </si>
-  <si>
-    <t>5 vs AC; 1d10 + 3. If I marked the target, it takes a -2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Shielding Smite </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(standard; Encounter) - Weapon</t>
-    </r>
-  </si>
-  <si>
-    <t>5 vs AC; 2d10 + 3 damage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Until the end of my next turn, one ally within 5</t>
-    </r>
-  </si>
-  <si>
-    <t>squares gains a 2 AC bonus.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Radiant Delirium </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(standard; Daily)</t>
-    </r>
-  </si>
-  <si>
-    <t>Ranged 5; 3 vs Reflex; 3d8 + 3 radiant damage, and the</t>
-  </si>
-  <si>
-    <t>target is dazed until the end of my next turn. The target</t>
-  </si>
-  <si>
-    <t>takes a -2 penalty to AC (save ends).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Miss: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Half damage, and the target is dazed until the end of</t>
-    </r>
-  </si>
-  <si>
-    <t>my next turn.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Channel Divinity: Divine Mettle </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(minor; Encounter)</t>
-    </r>
-  </si>
-  <si>
-    <t>One creature in close burst 10. The target makes a saving</t>
-  </si>
-  <si>
-    <t>throw with a +3 bonus.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Channel Divinity: Divine Strength </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(minor, Encounter)</t>
-    </r>
-  </si>
-  <si>
-    <t>Personal: Apply 2 extra damage on my next attack this turn.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Divine Challenge: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(minor, at-will)</t>
-    </r>
-  </si>
-  <si>
-    <t>One creature in close burst 5. I mark the target. Target</t>
-  </si>
-  <si>
-    <t>remains marked until I mark another target or I fail to</t>
-  </si>
-  <si>
-    <t>attack it or end my turn adj to it. While marked, it takes</t>
-  </si>
-  <si>
-    <t>-2 to attack rolls that don't include me. And takes 6 radiant</t>
-  </si>
-  <si>
-    <t>damage if it's first attack before the start of my next turn</t>
-  </si>
-  <si>
-    <t>doesn't include me.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Lay on Hands: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(minor, at-will but 2 times per day)</t>
-    </r>
-  </si>
-  <si>
-    <t>Melee touch - one creature; I spend a healing surge but</t>
-  </si>
-  <si>
-    <t>don't regain hp. Instead, the target regains hp as if it had</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Speed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Alignment Lawful </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Good</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Skills</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -1 acro, 1 arc, 3 blu, 8 dip, 4 dun, 3 end, 7 heal,</t>
-    </r>
-  </si>
-  <si>
-    <t>7 ins, 3 int, 2 nat, 2 perc, 5 rel, -1 ste, 3 str, -1 thiev</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Str</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 14 (+2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dex</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 10 (+0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 11 (+0)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 15 (+2)</t>
-    </r>
-  </si>
-  <si>
-    <t>spent a healing surge. Plus an extra 3 hp (healing hands).</t>
+      <t xml:space="preserve"> 16 (+4)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1410,17 +1410,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1428,17 +1428,17 @@
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1454,7 +1454,7 @@
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1463,7 +1463,7 @@
     <row r="7" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1471,14 +1471,14 @@
     <row r="8" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1486,7 +1486,7 @@
     <row r="10" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1494,14 +1494,14 @@
     <row r="11" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1509,7 +1509,7 @@
     <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -1517,7 +1517,7 @@
     <row r="14" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1525,7 +1525,7 @@
     <row r="15" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1533,7 +1533,7 @@
     <row r="16" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1541,7 +1541,7 @@
     <row r="17" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1549,7 +1549,7 @@
     <row r="18" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1557,7 +1557,7 @@
     <row r="19" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1565,7 +1565,7 @@
     <row r="20" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1573,7 +1573,7 @@
     <row r="21" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1581,7 +1581,7 @@
     <row r="22" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1589,7 +1589,7 @@
     <row r="23" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1597,7 +1597,7 @@
     <row r="24" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1605,7 +1605,7 @@
     <row r="25" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="9" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1613,7 +1613,7 @@
     <row r="26" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1621,7 +1621,7 @@
     <row r="27" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1629,7 +1629,7 @@
     <row r="28" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="8" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1637,7 +1637,7 @@
     <row r="29" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1645,7 +1645,7 @@
     <row r="30" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1653,7 +1653,7 @@
     <row r="31" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1661,7 +1661,7 @@
     <row r="32" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1669,7 +1669,7 @@
     <row r="33" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1677,7 +1677,7 @@
     <row r="34" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="9" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1685,7 +1685,7 @@
     <row r="35" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="8" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1693,7 +1693,7 @@
     <row r="36" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="8" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1701,24 +1701,24 @@
     <row r="37" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37" s="8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1727,14 +1727,14 @@
     <row r="40" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
@@ -1746,14 +1746,14 @@
     </row>
     <row r="42" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
